--- a/hydroelectric_power/TD/TD3/Input_reservoir.xlsx
+++ b/hydroelectric_power/TD/TD3/Input_reservoir.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name=" Input data operation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -346,39 +346,39 @@
     <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -771,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -789,11 +789,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
       <c r="F1" s="5"/>
@@ -807,11 +807,11 @@
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="15"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="17"/>
@@ -825,17 +825,17 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="29"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="F5" s="5"/>
       <c r="G5" s="11" t="s">
         <v>6</v>
@@ -845,14 +845,14 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="28.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="30" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="16">
         <f>8*10^6</f>
         <v>8000000</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F6" s="5"/>
@@ -864,14 +864,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="16">
         <f>3.24*10^6</f>
         <v>3240000</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="29" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="5"/>
@@ -885,17 +885,17 @@
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="20"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -905,7 +905,7 @@
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>16</v>
       </c>
       <c r="B11" s="16">
@@ -915,7 +915,7 @@
       <c r="F11" s="5"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="28" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="16" t="s">
@@ -933,19 +933,19 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="34" t="s">
         <v>19</v>
       </c>
       <c r="F14" s="5"/>
@@ -1026,17 +1026,17 @@
       <c r="D21" s="19"/>
       <c r="E21" s="19"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="28"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
     </row>
     <row r="22" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A22" s="21">
@@ -1278,29 +1278,29 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="38" t="s">
+      <c r="A42" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C42" s="39" t="s">
+      <c r="C42" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G42" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="29"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>1</v>
       </c>
       <c r="B43" s="15">
-        <v>7.85</v>
+        <v>0</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="B68" s="26">
         <f>SUM(B43:B66)/$A$66</f>
-        <v>16.597916666666674</v>
+        <v>16.270833333333339</v>
       </c>
       <c r="C68" s="26">
         <f t="shared" ref="C68:D68" si="1">SUM(C43:C66)/$A$66</f>
